--- a/MasterData/Quest.xlsx
+++ b/MasterData/Quest.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\MasterTools\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8B4C0-3D78-49AB-8CF7-24CD5FDFCBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956CE0A-06DA-419F-AAB3-4609F142409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="2028" windowWidth="19944" windowHeight="14916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
